--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideakiehara/virtualenv/py24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F04FC4C-93E3-684C-983D-EE15D650B5D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10D1F03-2694-954F-B429-63E833DB5FC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" xr2:uid="{FA92FDFD-C5A9-0548-BECD-113CD7891439}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Product</t>
     <phoneticPr fontId="1"/>
@@ -48,6 +48,30 @@
   </si>
   <si>
     <t>Prices</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H37 Vaccume Clenaer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PU653 Vertical Fan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AP12 Air Purifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AC981 Air Conditioner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WJ43 Washing Machine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CS21 Refrigerator</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -427,13 +451,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843221B9-3DFA-964C-8D0E-1D24882A020C}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
@@ -459,6 +486,36 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideakiehara/virtualenv/py24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10D1F03-2694-954F-B429-63E833DB5FC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4F25D0-8580-7E48-B440-581FE2B939D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" xr2:uid="{FA92FDFD-C5A9-0548-BECD-113CD7891439}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -489,33 +489,51 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B3">
+        <v>249</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B4">
+        <v>129</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>199</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B6">
+        <v>434</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B7">
+        <v>689</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="B8">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideakiehara/virtualenv/py24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4F25D0-8580-7E48-B440-581FE2B939D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C98CF70-A83B-DE45-94CC-1AFFDCDFE084}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" xr2:uid="{FA92FDFD-C5A9-0548-BECD-113CD7891439}"/>
+    <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" activeTab="1" xr2:uid="{FA92FDFD-C5A9-0548-BECD-113CD7891439}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="fx_rates">Data!$N$3:$O$11</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Product</t>
     <phoneticPr fontId="1"/>
@@ -72,6 +76,42 @@
   </si>
   <si>
     <t>CS21 Refrigerator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spot Rate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AUD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GBP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SGD</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -453,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843221B9-3DFA-964C-8D0E-1D24882A020C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
@@ -543,4 +583,100 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A945258-13E6-2D44-993B-68DF1A96CF98}">
+  <dimension ref="N2:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="14:15">
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="14:15">
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="4" spans="14:15">
+      <c r="N4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="5" spans="14:15">
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="6" spans="14:15">
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="7" spans="14:15">
+      <c r="N7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8" spans="14:15">
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="9" spans="14:15">
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>70.98</v>
+      </c>
+    </row>
+    <row r="10" spans="14:15">
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>107.68</v>
+      </c>
+    </row>
+    <row r="11" spans="14:15">
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>1.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/products.xlsx
+++ b/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideakiehara/virtualenv/py24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C98CF70-A83B-DE45-94CC-1AFFDCDFE084}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE6229A-54FE-A54E-911F-8372CC7FC3CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" activeTab="1" xr2:uid="{FA92FDFD-C5A9-0548-BECD-113CD7891439}"/>
+    <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" xr2:uid="{FA92FDFD-C5A9-0548-BECD-113CD7891439}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fx_rates">Data!$N$3:$O$11</definedName>
+    <definedName name="Products">Products!$A$3:$B$8</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -493,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843221B9-3DFA-964C-8D0E-1D24882A020C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -534,6 +535,10 @@
       </c>
       <c r="B3">
         <v>249</v>
+      </c>
+      <c r="C3">
+        <f>B3*VLOOKUP(C2, fx_rates, 2, FALSE)</f>
+        <v>226.59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -589,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A945258-13E6-2D44-993B-68DF1A96CF98}">
   <dimension ref="N2:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3:O11"/>
     </sheetView>
   </sheetViews>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideakiehara/virtualenv/py24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE6229A-54FE-A54E-911F-8372CC7FC3CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4530DB-3702-B247-BC44-E2843A20276E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" xr2:uid="{FA92FDFD-C5A9-0548-BECD-113CD7891439}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -535,10 +535,6 @@
       </c>
       <c r="B3">
         <v>249</v>
-      </c>
-      <c r="C3">
-        <f>B3*VLOOKUP(C2, fx_rates, 2, FALSE)</f>
-        <v>226.59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,7 +591,7 @@
   <dimension ref="N2:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:O11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideakiehara/virtualenv/py24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4530DB-3702-B247-BC44-E2843A20276E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521C279-DA37-B644-BB67-EB5ED331E4C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" xr2:uid="{FA92FDFD-C5A9-0548-BECD-113CD7891439}"/>
   </bookViews>
@@ -16,10 +16,6 @@
     <sheet name="Products" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="fx_rates">Data!$N$3:$O$11</definedName>
-    <definedName name="Products">Products!$A$3:$B$8</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -495,7 +491,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -591,7 +587,7 @@
   <dimension ref="N2:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideakiehara/virtualenv/py24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521C279-DA37-B644-BB67-EB5ED331E4C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E08A55-3D12-6C4E-ADC2-86D487A885C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" xr2:uid="{FA92FDFD-C5A9-0548-BECD-113CD7891439}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Products" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="fx_rates">Data!$N$3:$O$11</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -587,7 +590,7 @@
   <dimension ref="N2:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="N3" sqref="N3:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideakiehara/virtualenv/py24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E08A55-3D12-6C4E-ADC2-86D487A885C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606EFB39-C752-D04A-A569-96A2146A714B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" xr2:uid="{FA92FDFD-C5A9-0548-BECD-113CD7891439}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Product</t>
     <phoneticPr fontId="1"/>
@@ -44,10 +44,6 @@
   </si>
   <si>
     <t>INR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JPN</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -494,7 +490,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -505,7 +501,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -525,12 +521,12 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>249</v>
@@ -538,7 +534,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>129</v>
@@ -546,7 +542,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>199</v>
@@ -554,7 +550,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>434</v>
@@ -562,7 +558,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>689</v>
@@ -570,7 +566,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>309</v>
@@ -597,15 +593,15 @@
   <sheetData>
     <row r="2" spans="14:15">
       <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
         <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="14:15">
       <c r="N3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3">
         <v>1.48</v>
@@ -613,7 +609,7 @@
     </row>
     <row r="4" spans="14:15">
       <c r="N4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O4">
         <v>1.33</v>
@@ -621,7 +617,7 @@
     </row>
     <row r="5" spans="14:15">
       <c r="N5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O5">
         <v>0.99</v>
@@ -629,7 +625,7 @@
     </row>
     <row r="6" spans="14:15">
       <c r="N6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O6">
         <v>7.13</v>
@@ -645,7 +641,7 @@
     </row>
     <row r="8" spans="14:15">
       <c r="N8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8">
         <v>0.88</v>
@@ -661,7 +657,7 @@
     </row>
     <row r="10" spans="14:15">
       <c r="N10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O10">
         <v>107.68</v>
@@ -669,7 +665,7 @@
     </row>
     <row r="11" spans="14:15">
       <c r="N11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O11">
         <v>1.38</v>
